--- a/03_suplearn_fe/4_workshops/WS 01 Vorlage.xlsx
+++ b/03_suplearn_fe/4_workshops/WS 01 Vorlage.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i0325971\source\repos\bfh_cas_practical_ml\03_suplearn_fe\4_workshops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PRJ\BFH\2023_FS_CAS_PML\4_workshops\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C716F1-E6F4-491A-8FDD-A68D061C04F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="6885"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WS_01_Vorlage" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Dtype</t>
   </si>
@@ -128,15 +129,12 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,18 +152,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,14 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,22 +457,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC29113-B5DB-4C42-A44D-E375BA053584}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -502,7 +492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -513,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -523,11 +513,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -537,11 +524,8 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -551,11 +535,8 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -565,11 +546,8 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -580,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -590,11 +568,8 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -604,22 +579,19 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -629,25 +601,19 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -657,11 +623,8 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -671,11 +634,8 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -685,11 +645,8 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -699,11 +656,8 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -713,11 +667,8 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -727,11 +678,8 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -741,39 +689,30 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -783,11 +722,8 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -797,12 +733,9 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
     <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
